--- a/Excel-XLSX/UN-COL.xlsx
+++ b/Excel-XLSX/UN-COL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="882">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>hOspO6</t>
+    <t>b63goC</t>
   </si>
   <si>
     <t>1970</t>
@@ -2559,16 +2559,22 @@
     <t>607</t>
   </si>
   <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
     <t>608</t>
   </si>
   <si>
     <t>609</t>
   </si>
   <si>
-    <t>6976227</t>
-  </si>
-  <si>
-    <t>876000</t>
+    <t>7031498</t>
+  </si>
+  <si>
+    <t>807700</t>
   </si>
   <si>
     <t>610</t>
@@ -2643,13 +2649,19 @@
     <t>633</t>
   </si>
   <si>
-    <t>1113</t>
+    <t>634</t>
+  </si>
+  <si>
+    <t>635</t>
+  </si>
+  <si>
+    <t>1070</t>
   </si>
   <si>
     <t>28294</t>
   </si>
   <si>
-    <t>2828121</t>
+    <t>2779604</t>
   </si>
 </sst>
 </file>
@@ -3034,7 +3046,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V634"/>
+  <dimension ref="A1:V636"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -44335,16 +44347,16 @@
         <v>845</v>
       </c>
       <c r="F608" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G608" s="1" t="s">
-        <v>410</v>
+        <v>847</v>
       </c>
       <c r="H608" s="1" t="s">
-        <v>411</v>
+        <v>848</v>
       </c>
       <c r="I608" s="1" t="s">
-        <v>411</v>
+        <v>848</v>
       </c>
       <c r="J608" s="2" t="s">
         <v>29</v>
@@ -44359,7 +44371,7 @@
         <v>31</v>
       </c>
       <c r="N608" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="O608" s="2" t="s">
         <v>33</v>
@@ -44377,7 +44389,7 @@
         <v>33</v>
       </c>
       <c r="T608" s="2" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="U608" s="1" t="s">
         <v>34</v>
@@ -44397,22 +44409,22 @@
         <v>22</v>
       </c>
       <c r="D609" s="2" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="E609" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F609" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G609" s="1" t="s">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="H609" s="1" t="s">
-        <v>121</v>
+        <v>411</v>
       </c>
       <c r="I609" s="1" t="s">
-        <v>122</v>
+        <v>411</v>
       </c>
       <c r="J609" s="2" t="s">
         <v>29</v>
@@ -44427,7 +44439,7 @@
         <v>31</v>
       </c>
       <c r="N609" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="O609" s="2" t="s">
         <v>33</v>
@@ -44445,7 +44457,7 @@
         <v>33</v>
       </c>
       <c r="T609" s="2" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="U609" s="1" t="s">
         <v>34</v>
@@ -44465,7 +44477,7 @@
         <v>22</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="E610" s="2" t="s">
         <v>845</v>
@@ -44504,7 +44516,7 @@
         <v>33</v>
       </c>
       <c r="Q610" s="2" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="R610" s="2" t="s">
         <v>33</v>
@@ -44513,13 +44525,13 @@
         <v>33</v>
       </c>
       <c r="T610" s="2" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="U610" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V610" s="2" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="611">
@@ -44533,7 +44545,7 @@
         <v>22</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="E611" s="2" t="s">
         <v>845</v>
@@ -44563,7 +44575,7 @@
         <v>31</v>
       </c>
       <c r="N611" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="O611" s="2" t="s">
         <v>733</v>
@@ -44581,7 +44593,7 @@
         <v>33</v>
       </c>
       <c r="T611" s="2" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="U611" s="1" t="s">
         <v>34</v>
@@ -44601,7 +44613,7 @@
         <v>22</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E612" s="2" t="s">
         <v>845</v>
@@ -44649,7 +44661,7 @@
         <v>33</v>
       </c>
       <c r="T612" s="2" t="s">
-        <v>367</v>
+        <v>201</v>
       </c>
       <c r="U612" s="1" t="s">
         <v>34</v>
@@ -44669,7 +44681,7 @@
         <v>22</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="E613" s="2" t="s">
         <v>845</v>
@@ -44737,7 +44749,7 @@
         <v>22</v>
       </c>
       <c r="D614" s="2" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E614" s="2" t="s">
         <v>845</v>
@@ -44805,7 +44817,7 @@
         <v>22</v>
       </c>
       <c r="D615" s="2" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="E615" s="2" t="s">
         <v>845</v>
@@ -44853,7 +44865,7 @@
         <v>33</v>
       </c>
       <c r="T615" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="U615" s="1" t="s">
         <v>34</v>
@@ -44873,7 +44885,7 @@
         <v>22</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E616" s="2" t="s">
         <v>845</v>
@@ -44921,7 +44933,7 @@
         <v>33</v>
       </c>
       <c r="T616" s="2" t="s">
-        <v>249</v>
+        <v>62</v>
       </c>
       <c r="U616" s="1" t="s">
         <v>34</v>
@@ -44941,7 +44953,7 @@
         <v>22</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="E617" s="2" t="s">
         <v>845</v>
@@ -45009,7 +45021,7 @@
         <v>22</v>
       </c>
       <c r="D618" s="2" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E618" s="2" t="s">
         <v>845</v>
@@ -45077,7 +45089,7 @@
         <v>22</v>
       </c>
       <c r="D619" s="2" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="E619" s="2" t="s">
         <v>845</v>
@@ -45125,7 +45137,7 @@
         <v>33</v>
       </c>
       <c r="T619" s="2" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="U619" s="1" t="s">
         <v>34</v>
@@ -45145,7 +45157,7 @@
         <v>22</v>
       </c>
       <c r="D620" s="2" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="E620" s="2" t="s">
         <v>845</v>
@@ -45193,7 +45205,7 @@
         <v>33</v>
       </c>
       <c r="T620" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="U620" s="1" t="s">
         <v>34</v>
@@ -45213,7 +45225,7 @@
         <v>22</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="E621" s="2" t="s">
         <v>845</v>
@@ -45281,7 +45293,7 @@
         <v>22</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="E622" s="2" t="s">
         <v>845</v>
@@ -45349,22 +45361,22 @@
         <v>22</v>
       </c>
       <c r="D623" s="2" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="E623" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F623" s="2" t="s">
-        <v>64</v>
+        <v>262</v>
       </c>
       <c r="G623" s="1" t="s">
-        <v>65</v>
+        <v>424</v>
       </c>
       <c r="H623" s="1" t="s">
-        <v>66</v>
+        <v>425</v>
       </c>
       <c r="I623" s="1" t="s">
-        <v>66</v>
+        <v>426</v>
       </c>
       <c r="J623" s="2" t="s">
         <v>29</v>
@@ -45379,7 +45391,7 @@
         <v>31</v>
       </c>
       <c r="N623" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="O623" s="2" t="s">
         <v>33</v>
@@ -45397,7 +45409,7 @@
         <v>33</v>
       </c>
       <c r="T623" s="2" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="U623" s="1" t="s">
         <v>34</v>
@@ -45417,22 +45429,22 @@
         <v>22</v>
       </c>
       <c r="D624" s="2" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="E624" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F624" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G624" s="1" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="H624" s="1" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="I624" s="1" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="J624" s="2" t="s">
         <v>29</v>
@@ -45447,10 +45459,10 @@
         <v>31</v>
       </c>
       <c r="N624" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="O624" s="2" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="P624" s="2" t="s">
         <v>33</v>
@@ -45485,22 +45497,22 @@
         <v>22</v>
       </c>
       <c r="D625" s="2" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="E625" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F625" s="2" t="s">
-        <v>289</v>
+        <v>61</v>
       </c>
       <c r="G625" s="1" t="s">
-        <v>479</v>
+        <v>144</v>
       </c>
       <c r="H625" s="1" t="s">
-        <v>480</v>
+        <v>145</v>
       </c>
       <c r="I625" s="1" t="s">
-        <v>480</v>
+        <v>145</v>
       </c>
       <c r="J625" s="2" t="s">
         <v>29</v>
@@ -45515,10 +45527,10 @@
         <v>31</v>
       </c>
       <c r="N625" s="2" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="O625" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="P625" s="2" t="s">
         <v>33</v>
@@ -45553,22 +45565,22 @@
         <v>22</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="E626" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F626" s="2" t="s">
-        <v>152</v>
+        <v>289</v>
       </c>
       <c r="G626" s="1" t="s">
-        <v>153</v>
+        <v>479</v>
       </c>
       <c r="H626" s="1" t="s">
-        <v>154</v>
+        <v>480</v>
       </c>
       <c r="I626" s="1" t="s">
-        <v>155</v>
+        <v>480</v>
       </c>
       <c r="J626" s="2" t="s">
         <v>29</v>
@@ -45583,10 +45595,10 @@
         <v>31</v>
       </c>
       <c r="N626" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="O626" s="2" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="P626" s="2" t="s">
         <v>33</v>
@@ -45621,22 +45633,22 @@
         <v>22</v>
       </c>
       <c r="D627" s="2" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="E627" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F627" s="2" t="s">
-        <v>239</v>
+        <v>152</v>
       </c>
       <c r="G627" s="1" t="s">
-        <v>240</v>
+        <v>153</v>
       </c>
       <c r="H627" s="1" t="s">
-        <v>241</v>
+        <v>154</v>
       </c>
       <c r="I627" s="1" t="s">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="J627" s="2" t="s">
         <v>29</v>
@@ -45651,7 +45663,7 @@
         <v>31</v>
       </c>
       <c r="N627" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O627" s="2" t="s">
         <v>33</v>
@@ -45689,22 +45701,22 @@
         <v>22</v>
       </c>
       <c r="D628" s="2" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="E628" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F628" s="2" t="s">
-        <v>299</v>
+        <v>239</v>
       </c>
       <c r="G628" s="1" t="s">
-        <v>386</v>
+        <v>240</v>
       </c>
       <c r="H628" s="1" t="s">
-        <v>387</v>
+        <v>241</v>
       </c>
       <c r="I628" s="1" t="s">
-        <v>387</v>
+        <v>241</v>
       </c>
       <c r="J628" s="2" t="s">
         <v>29</v>
@@ -45719,7 +45731,7 @@
         <v>31</v>
       </c>
       <c r="N628" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="O628" s="2" t="s">
         <v>33</v>
@@ -45757,22 +45769,22 @@
         <v>22</v>
       </c>
       <c r="D629" s="2" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="E629" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F629" s="2" t="s">
-        <v>181</v>
+        <v>299</v>
       </c>
       <c r="G629" s="1" t="s">
-        <v>182</v>
+        <v>386</v>
       </c>
       <c r="H629" s="1" t="s">
-        <v>183</v>
+        <v>387</v>
       </c>
       <c r="I629" s="1" t="s">
-        <v>183</v>
+        <v>387</v>
       </c>
       <c r="J629" s="2" t="s">
         <v>29</v>
@@ -45787,7 +45799,7 @@
         <v>31</v>
       </c>
       <c r="N629" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="O629" s="2" t="s">
         <v>33</v>
@@ -45825,22 +45837,22 @@
         <v>22</v>
       </c>
       <c r="D630" s="2" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="E630" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F630" s="2" t="s">
-        <v>312</v>
+        <v>181</v>
       </c>
       <c r="G630" s="1" t="s">
-        <v>551</v>
+        <v>182</v>
       </c>
       <c r="H630" s="1" t="s">
-        <v>552</v>
+        <v>183</v>
       </c>
       <c r="I630" s="1" t="s">
-        <v>552</v>
+        <v>183</v>
       </c>
       <c r="J630" s="2" t="s">
         <v>29</v>
@@ -45855,7 +45867,7 @@
         <v>31</v>
       </c>
       <c r="N630" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="O630" s="2" t="s">
         <v>33</v>
@@ -45893,22 +45905,22 @@
         <v>22</v>
       </c>
       <c r="D631" s="2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="E631" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F631" s="2" t="s">
-        <v>330</v>
+        <v>185</v>
       </c>
       <c r="G631" s="1" t="s">
-        <v>600</v>
+        <v>186</v>
       </c>
       <c r="H631" s="1" t="s">
-        <v>601</v>
+        <v>187</v>
       </c>
       <c r="I631" s="1" t="s">
-        <v>601</v>
+        <v>188</v>
       </c>
       <c r="J631" s="2" t="s">
         <v>29</v>
@@ -45923,7 +45935,7 @@
         <v>31</v>
       </c>
       <c r="N631" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="O631" s="2" t="s">
         <v>33</v>
@@ -45938,7 +45950,7 @@
         <v>33</v>
       </c>
       <c r="S631" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="T631" s="2" t="s">
         <v>33</v>
@@ -45961,22 +45973,22 @@
         <v>22</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="E632" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F632" s="2" t="s">
-        <v>25</v>
+        <v>312</v>
       </c>
       <c r="G632" s="1" t="s">
-        <v>26</v>
+        <v>551</v>
       </c>
       <c r="H632" s="1" t="s">
-        <v>27</v>
+        <v>552</v>
       </c>
       <c r="I632" s="1" t="s">
-        <v>28</v>
+        <v>552</v>
       </c>
       <c r="J632" s="2" t="s">
         <v>29</v>
@@ -45991,10 +46003,10 @@
         <v>31</v>
       </c>
       <c r="N632" s="2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="O632" s="2" t="s">
-        <v>405</v>
+        <v>33</v>
       </c>
       <c r="P632" s="2" t="s">
         <v>33</v>
@@ -46009,7 +46021,7 @@
         <v>33</v>
       </c>
       <c r="T632" s="2" t="s">
-        <v>338</v>
+        <v>33</v>
       </c>
       <c r="U632" s="1" t="s">
         <v>34</v>
@@ -46029,22 +46041,22 @@
         <v>22</v>
       </c>
       <c r="D633" s="2" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E633" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F633" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G633" s="1" t="s">
-        <v>797</v>
+        <v>600</v>
       </c>
       <c r="H633" s="1" t="s">
-        <v>798</v>
+        <v>601</v>
       </c>
       <c r="I633" s="1" t="s">
-        <v>798</v>
+        <v>601</v>
       </c>
       <c r="J633" s="2" t="s">
         <v>29</v>
@@ -46059,10 +46071,10 @@
         <v>31</v>
       </c>
       <c r="N633" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="O633" s="2" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="P633" s="2" t="s">
         <v>33</v>
@@ -46097,60 +46109,196 @@
         <v>22</v>
       </c>
       <c r="D634" s="2" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="E634" s="2" t="s">
         <v>845</v>
       </c>
       <c r="F634" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G634" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H634" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I634" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J634" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K634" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L634" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M634" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N634" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O634" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="P634" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q634" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R634" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S634" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T634" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="U634" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V634" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C635" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D635" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="E635" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="F635" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G635" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="H635" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="I635" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="J635" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K635" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L635" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M635" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N635" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O635" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P635" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q635" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R635" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S635" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T635" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U635" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V635" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C636" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D636" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="E636" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="F636" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G634" s="1" t="s">
+      <c r="G636" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H634" s="1" t="s">
+      <c r="H636" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I634" s="1" t="s">
+      <c r="I636" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="J634" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K634" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L634" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M634" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N634" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="O634" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="P634" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q634" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R634" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S634" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T634" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U634" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="V634" s="2" t="s">
+      <c r="J636" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K636" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L636" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M636" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N636" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="O636" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="P636" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q636" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R636" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S636" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T636" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U636" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="V636" s="2" t="s">
         <v>33</v>
       </c>
     </row>
